--- a/Spec/App/APP_OutGame.xlsx
+++ b/Spec/App/APP_OutGame.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hashimotokou/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hashimotokou/Desktop/Git/Documents/Spec/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -487,6 +487,50 @@
             <a:cs typeface="Times New Roman" charset="0"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>        TODO : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>フォントサイズなど決まり次第追記</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1109,6 +1153,62 @@
             </a:rPr>
             <a:t>広告、プレイヤー情報は謎すぎわろた状態だから保留</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="just" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>TODO : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>フォントサイズなど決まり次第追記</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:latin typeface="Century" charset="0"/>
@@ -2018,6 +2118,62 @@
             <a:cs typeface="Times New Roman" charset="0"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="just" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>TODO : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>フォントサイズなど決まり次第追記</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" kern="100" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1100" kern="100">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -2594,6 +2750,62 @@
             </a:rPr>
             <a:t>２、？？？？？？？？</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" kern="100">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="just" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>TODO : </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1200" kern="100" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Century" charset="0"/>
+              <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+              <a:cs typeface="Times New Roman" charset="0"/>
+            </a:rPr>
+            <a:t>フォントサイズなど決まり次第追記</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1200" kern="100" baseline="0">
+            <a:effectLst/>
+            <a:latin typeface="Century" charset="0"/>
+            <a:ea typeface="ＭＳ 明朝" charset="-128"/>
+            <a:cs typeface="Times New Roman" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="just">
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
           <a:endParaRPr lang="ja-JP" sz="1200" kern="100">
             <a:effectLst/>
             <a:latin typeface="Century" charset="0"/>
@@ -3020,7 +3232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
